--- a/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_5_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.60894135730054</v>
+        <v>93.34221642226275</v>
       </c>
       <c r="D2" t="n">
-        <v>6.415434695432631</v>
+        <v>5.699473327162637</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.28198118067805</v>
+        <v>92.05752614990121</v>
       </c>
       <c r="D3" t="n">
-        <v>6.360818155120931</v>
+        <v>6.744888986426561</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.6879322536814</v>
+        <v>90.98119127970116</v>
       </c>
       <c r="D4" t="n">
-        <v>5.594673710657041</v>
+        <v>5.622608583631479</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.685668682768</v>
+        <v>90.09904327300158</v>
       </c>
       <c r="D5" t="n">
-        <v>6.548999742807923</v>
+        <v>5.903487947602262</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>89.37303952065224</v>
+        <v>89.60496352921147</v>
       </c>
       <c r="D6" t="n">
-        <v>6.763292894517961</v>
+        <v>6.392255380926891</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>88.48305114477779</v>
+        <v>87.56805193849405</v>
       </c>
       <c r="D7" t="n">
-        <v>6.013802308307064</v>
+        <v>6.030430453304772</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.31920050054561</v>
+        <v>86.45049930889381</v>
       </c>
       <c r="D8" t="n">
-        <v>6.629557679566461</v>
+        <v>5.692815853741788</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>85.70312313224504</v>
+        <v>87.02492584715941</v>
       </c>
       <c r="D9" t="n">
-        <v>7.029164360657606</v>
+        <v>5.961943691736333</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.60477532888122</v>
+        <v>85.65685607590206</v>
       </c>
       <c r="D10" t="n">
-        <v>6.265658874446559</v>
+        <v>5.825739022088988</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.26899459676707</v>
+        <v>84.42006467704715</v>
       </c>
       <c r="D11" t="n">
-        <v>6.430126312688161</v>
+        <v>6.855134667254645</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.08277880334732</v>
+        <v>82.40839156357497</v>
       </c>
       <c r="D12" t="n">
-        <v>7.035007135091703</v>
+        <v>6.597445699385053</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>80.38299028055715</v>
+        <v>81.80599102981196</v>
       </c>
       <c r="D13" t="n">
-        <v>6.144571468450594</v>
+        <v>6.024709234888463</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.02623906264219</v>
+        <v>79.95871097771236</v>
       </c>
       <c r="D14" t="n">
-        <v>5.691408268020845</v>
+        <v>6.088872191679984</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.73661055046202</v>
+        <v>81.25582738311886</v>
       </c>
       <c r="D15" t="n">
-        <v>6.266018591734445</v>
+        <v>6.109990127145804</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.58417115104062</v>
+        <v>78.27798562785343</v>
       </c>
       <c r="D16" t="n">
-        <v>6.005883344367327</v>
+        <v>6.095219363662614</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.29313280808844</v>
+        <v>77.59980197688789</v>
       </c>
       <c r="D17" t="n">
-        <v>5.846886458415258</v>
+        <v>6.346654339131161</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.68232748965298</v>
+        <v>75.77638233074535</v>
       </c>
       <c r="D18" t="n">
-        <v>6.960821498826283</v>
+        <v>6.088075711950061</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.77481878106681</v>
+        <v>74.57248295787433</v>
       </c>
       <c r="D19" t="n">
-        <v>6.646971278968982</v>
+        <v>5.795916882380237</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.43011531511414</v>
+        <v>73.68669542881793</v>
       </c>
       <c r="D20" t="n">
-        <v>6.870345865114344</v>
+        <v>6.194420023846418</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.96193950872383</v>
+        <v>73.11532809052598</v>
       </c>
       <c r="D21" t="n">
-        <v>6.668061348689247</v>
+        <v>5.865342333619946</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.37656621979833</v>
+        <v>72.41030556638607</v>
       </c>
       <c r="D22" t="n">
-        <v>5.739706679395912</v>
+        <v>6.119097244057095</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.4881415300929</v>
+        <v>70.49630047513936</v>
       </c>
       <c r="D23" t="n">
-        <v>6.366081227110551</v>
+        <v>6.223025031396191</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.47451682069632</v>
+        <v>69.0811260712269</v>
       </c>
       <c r="D24" t="n">
-        <v>7.168161935958011</v>
+        <v>5.728385305954622</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.48643570656478</v>
+        <v>67.41718036738935</v>
       </c>
       <c r="D25" t="n">
-        <v>6.03307708175441</v>
+        <v>5.899803501926923</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.34051262390871</v>
+        <v>67.43503291809233</v>
       </c>
       <c r="D26" t="n">
-        <v>6.912265352630131</v>
+        <v>5.350724734005409</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.44057124590285</v>
+        <v>66.54631649855565</v>
       </c>
       <c r="D27" t="n">
-        <v>7.050620818224306</v>
+        <v>6.050561149342848</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.38147544651488</v>
+        <v>65.97575500358589</v>
       </c>
       <c r="D28" t="n">
-        <v>5.930089428166113</v>
+        <v>6.587509274124593</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.99162590992388</v>
+        <v>64.36991693764118</v>
       </c>
       <c r="D29" t="n">
-        <v>6.488412038465966</v>
+        <v>6.600600712937752</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.17705852161122</v>
+        <v>62.74611784893591</v>
       </c>
       <c r="D30" t="n">
-        <v>7.711347539887897</v>
+        <v>5.421560194287651</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.98401723290001</v>
+        <v>62.72411138574348</v>
       </c>
       <c r="D31" t="n">
-        <v>6.569939630050937</v>
+        <v>6.177447935933918</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.98868867532406</v>
+        <v>62.02593409819468</v>
       </c>
       <c r="D32" t="n">
-        <v>5.974557043294015</v>
+        <v>6.178340294968244</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.39904087649209</v>
+        <v>60.41138576334289</v>
       </c>
       <c r="D33" t="n">
-        <v>6.053287684336653</v>
+        <v>5.72857617494583</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.96512636311251</v>
+        <v>59.07521096311314</v>
       </c>
       <c r="D34" t="n">
-        <v>5.929906641608547</v>
+        <v>5.750750132886987</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.27458866944077</v>
+        <v>59.55529260636559</v>
       </c>
       <c r="D35" t="n">
-        <v>6.112644967335228</v>
+        <v>6.49304359628795</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.70403487635677</v>
+        <v>57.62466238159223</v>
       </c>
       <c r="D36" t="n">
-        <v>6.605621548585527</v>
+        <v>6.334683129874739</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.46946227201082</v>
+        <v>55.35323547697569</v>
       </c>
       <c r="D37" t="n">
-        <v>6.272471806409022</v>
+        <v>6.724869789914129</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.72613789983891</v>
+        <v>54.53762342598735</v>
       </c>
       <c r="D38" t="n">
-        <v>6.378311180806129</v>
+        <v>5.856989540162859</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.71763121335938</v>
+        <v>54.08056065507603</v>
       </c>
       <c r="D39" t="n">
-        <v>6.767691737623384</v>
+        <v>6.033166724723384</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.70045213800739</v>
+        <v>53.01181950899311</v>
       </c>
       <c r="D40" t="n">
-        <v>6.019563198089148</v>
+        <v>5.994779463302267</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.5539892471484</v>
+        <v>52.37169351220934</v>
       </c>
       <c r="D41" t="n">
-        <v>7.445706505384618</v>
+        <v>6.707723142551278</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.35272906078155</v>
+        <v>50.67409805388015</v>
       </c>
       <c r="D42" t="n">
-        <v>5.689247854877514</v>
+        <v>5.819692756362917</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.4726763272944</v>
+        <v>50.07893580075876</v>
       </c>
       <c r="D43" t="n">
-        <v>6.134306386021234</v>
+        <v>5.871119030499122</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.02092167964172</v>
+        <v>48.38559777193733</v>
       </c>
       <c r="D44" t="n">
-        <v>6.265014435557141</v>
+        <v>6.675285967854689</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.69221479849313</v>
+        <v>47.24302671622783</v>
       </c>
       <c r="D45" t="n">
-        <v>6.435114249972313</v>
+        <v>6.175430557836076</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.0731684440511</v>
+        <v>46.5811692035121</v>
       </c>
       <c r="D46" t="n">
-        <v>6.560076593327446</v>
+        <v>6.540780308629356</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.80886717037615</v>
+        <v>46.28410502092269</v>
       </c>
       <c r="D47" t="n">
-        <v>6.420967476932141</v>
+        <v>6.065401525405454</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.42287878712867</v>
+        <v>44.71716137641508</v>
       </c>
       <c r="D48" t="n">
-        <v>5.710617716302355</v>
+        <v>6.16800741708886</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.40316762104154</v>
+        <v>43.0856729177904</v>
       </c>
       <c r="D49" t="n">
-        <v>6.651097888822978</v>
+        <v>6.360788139204719</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.79060258101019</v>
+        <v>41.87507858956645</v>
       </c>
       <c r="D50" t="n">
-        <v>6.178605928648005</v>
+        <v>4.916875131374912</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.04228543483954</v>
+        <v>41.83735448252541</v>
       </c>
       <c r="D51" t="n">
-        <v>6.228107978804498</v>
+        <v>5.958711091469795</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.71007325864579</v>
+        <v>39.31085701513724</v>
       </c>
       <c r="D52" t="n">
-        <v>6.273743653204833</v>
+        <v>5.629446838476175</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.42464718530438</v>
+        <v>38.94895570251342</v>
       </c>
       <c r="D53" t="n">
-        <v>5.997014100818701</v>
+        <v>6.159990350839987</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>39.82679969676907</v>
+        <v>38.80548537804455</v>
       </c>
       <c r="D54" t="n">
-        <v>6.228269413188721</v>
+        <v>6.384419398464126</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.90763124657055</v>
+        <v>36.16476592368904</v>
       </c>
       <c r="D55" t="n">
-        <v>6.889117258901038</v>
+        <v>5.622709742150755</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.32551832946714</v>
+        <v>36.83877992284219</v>
       </c>
       <c r="D56" t="n">
-        <v>6.747383294192341</v>
+        <v>5.590135309134492</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.05640635276571</v>
+        <v>35.11494773878151</v>
       </c>
       <c r="D57" t="n">
-        <v>5.990984260183915</v>
+        <v>6.071076459480246</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.85389646087192</v>
+        <v>33.92538311274492</v>
       </c>
       <c r="D58" t="n">
-        <v>5.670774029267481</v>
+        <v>6.439165648070084</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.8744385146242</v>
+        <v>32.09436328523843</v>
       </c>
       <c r="D59" t="n">
-        <v>6.441090828635051</v>
+        <v>5.963745171616345</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.75674827890704</v>
+        <v>32.07308581892833</v>
       </c>
       <c r="D60" t="n">
-        <v>5.832416209161099</v>
+        <v>5.704065518679568</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.1432986596903</v>
+        <v>31.41255488992436</v>
       </c>
       <c r="D61" t="n">
-        <v>5.552084475862656</v>
+        <v>5.886302125216217</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.85376332472674</v>
+        <v>30.27478279595515</v>
       </c>
       <c r="D62" t="n">
-        <v>6.12100276305309</v>
+        <v>6.254655703081939</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.66752456089218</v>
+        <v>29.10520086737954</v>
       </c>
       <c r="D63" t="n">
-        <v>5.640363293802254</v>
+        <v>6.184938907886816</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.94481988076288</v>
+        <v>26.68616046067332</v>
       </c>
       <c r="D64" t="n">
-        <v>5.589141169054508</v>
+        <v>6.559692745529882</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.8165922399195</v>
+        <v>26.30027024307974</v>
       </c>
       <c r="D65" t="n">
-        <v>6.162549051375562</v>
+        <v>5.947116470372349</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.0228325406528</v>
+        <v>25.85128218910998</v>
       </c>
       <c r="D66" t="n">
-        <v>6.155261112327576</v>
+        <v>6.276653723347298</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.98185156466553</v>
+        <v>24.87907215012101</v>
       </c>
       <c r="D67" t="n">
-        <v>6.056259947047709</v>
+        <v>6.470580029425906</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.31076477090718</v>
+        <v>23.81804793800438</v>
       </c>
       <c r="D68" t="n">
-        <v>5.539625234292712</v>
+        <v>5.8300641090036</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.81600566107789</v>
+        <v>23.7251427596096</v>
       </c>
       <c r="D69" t="n">
-        <v>5.96431434657309</v>
+        <v>5.468858096826058</v>
       </c>
     </row>
   </sheetData>
